--- a/biology/Zoologie/Isopora_togianensis/Isopora_togianensis.xlsx
+++ b/biology/Zoologie/Isopora_togianensis/Isopora_togianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isopora togianensis[2] est une espèce de coraux de la famille des Acroporidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isopora togianensis est une espèce de coraux de la famille des Acroporidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, composé de togian et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les îles Togian, dans le golfe de Tomini en Indonésie. 
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wallace, 1997 : New species and new records of recently described species of the coral genus Acropora (Scleractinia: Astrocoeniina: Acroporidae) from Indonesia. Zoological Journal of the Linnean Society, vol. 120, pp. 27-50 (introduction) (en).</t>
         </is>
